--- a/data/bbm_upload_log.xlsx
+++ b/data/bbm_upload_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>BBM_STD</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>2025-12-02 11:38</t>
+  </si>
+  <si>
+    <t>2025-12-02 11:39</t>
   </si>
   <si>
     <t>2025-12</t>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,7 +441,24 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbm_upload_log.xlsx
+++ b/data/bbm_upload_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>BBM_STD</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>2025-12-02 11:39</t>
+  </si>
+  <si>
+    <t>2025-12-02 11:47</t>
   </si>
   <si>
     <t>2025-12</t>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,7 +444,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,7 +461,24 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbm_upload_log.xlsx
+++ b/data/bbm_upload_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>BBM_STD</t>
   </si>
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,6 +481,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/bbm_upload_log.xlsx
+++ b/data/bbm_upload_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>BBM_STD</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Ftth OS_25.11.2025.xlsx</t>
   </si>
   <si>
+    <t>Ftth OS_01.12.2025.xlsx</t>
+  </si>
+  <si>
     <t>2025-12-02 11:38</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
   </si>
   <si>
     <t>2025-12-02 11:47</t>
+  </si>
+  <si>
+    <t>2025-12-02 12:18</t>
   </si>
   <si>
     <t>2025-12</t>
@@ -407,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,10 +447,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,10 +464,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,10 +481,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,10 +498,27 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbm_upload_log.xlsx
+++ b/data/bbm_upload_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>BBM_STD</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>2025-12-02 12:18</t>
+  </si>
+  <si>
+    <t>2025-12-02 12:19</t>
   </si>
   <si>
     <t>2025-12</t>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,7 +453,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -467,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -484,7 +487,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -501,7 +504,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -518,7 +521,24 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbm_upload_log.xlsx
+++ b/data/bbm_upload_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>BBM_STD</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>2025-12-02 12:19</t>
+  </si>
+  <si>
+    <t>2025-12-02 12:39</t>
   </si>
   <si>
     <t>2025-12</t>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,7 +456,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -470,7 +473,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -487,7 +490,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -504,7 +507,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -521,7 +524,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -538,7 +541,24 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbm_upload_log.xlsx
+++ b/data/bbm_upload_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
   <si>
     <t>BBM_STD</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,6 +561,23 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
